--- a/Vol.xlsx
+++ b/Vol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Jupyter Notebook\PFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8A813DC6-3414-4359-9A08-581E0F35AAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7135EA-3EED-4B33-8C6C-6D56908934C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="3468" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vol" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="489">
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>HPA</t>
   </si>
   <si>
@@ -1487,12 +1484,15 @@
   </si>
   <si>
     <t>141 PX</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2352,12 +2352,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2366,40 +2364,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2410,31 +2408,31 @@
         <v>0.30208333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>4000</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2445,28 +2443,28 @@
         <v>0.3125</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>1400</v>
       </c>
       <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2477,31 +2475,31 @@
         <v>0.3125</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>1408</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2512,31 +2510,31 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>6258</v>
       </c>
       <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2547,31 +2545,31 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>2320</v>
       </c>
       <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2582,31 +2580,31 @@
         <v>0.34375</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>6170</v>
       </c>
       <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2617,31 +2615,31 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>6180</v>
       </c>
       <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>45</v>
       </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2652,31 +2650,31 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>1154</v>
       </c>
       <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>50</v>
       </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2687,31 +2685,31 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>6342</v>
       </c>
       <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
         <v>52</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
         <v>53</v>
       </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2722,31 +2720,31 @@
         <v>0.375</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>1516</v>
       </c>
       <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
         <v>58</v>
       </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
-        <v>60</v>
-      </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2757,31 +2755,31 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>6027</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
         <v>61</v>
       </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>62</v>
       </c>
-      <c r="K12" t="s">
-        <v>63</v>
-      </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2792,31 +2790,31 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>6223</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
         <v>64</v>
       </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>65</v>
       </c>
-      <c r="K13" t="s">
-        <v>66</v>
-      </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2827,31 +2825,31 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>1010</v>
       </c>
       <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
         <v>67</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>68</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>69</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>70</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>71</v>
       </c>
-      <c r="K14" t="s">
-        <v>72</v>
-      </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2862,31 +2860,31 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>1326</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
         <v>73</v>
       </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>74</v>
       </c>
-      <c r="K15" t="s">
-        <v>75</v>
-      </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2897,31 +2895,31 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>6007</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
         <v>76</v>
       </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>77</v>
       </c>
-      <c r="K16" t="s">
-        <v>78</v>
-      </c>
       <c r="L16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2932,31 +2930,31 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>6107</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
         <v>79</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" t="s">
         <v>80</v>
       </c>
-      <c r="I17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" t="s">
-        <v>81</v>
-      </c>
       <c r="L17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2967,31 +2965,31 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>6520</v>
       </c>
       <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
         <v>82</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
         <v>83</v>
       </c>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>84</v>
       </c>
-      <c r="K18" t="s">
-        <v>85</v>
-      </c>
       <c r="L18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3002,28 +3000,28 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>161</v>
       </c>
       <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
         <v>87</v>
       </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>88</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>89</v>
       </c>
-      <c r="K19" t="s">
-        <v>90</v>
-      </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3034,31 +3032,31 @@
         <v>0.40625</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>6201</v>
       </c>
       <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
         <v>91</v>
       </c>
-      <c r="G20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" t="s">
-        <v>92</v>
-      </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3069,28 +3067,28 @@
         <v>0.40625</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>1993</v>
       </c>
       <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s">
         <v>93</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
         <v>94</v>
       </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" t="s">
-        <v>95</v>
-      </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3101,31 +3099,31 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>6238</v>
       </c>
       <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
         <v>96</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
         <v>97</v>
       </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>98</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>99</v>
       </c>
-      <c r="K22" t="s">
-        <v>100</v>
-      </c>
       <c r="L22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3136,31 +3134,31 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>1200</v>
       </c>
       <c r="F23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
         <v>101</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" t="s">
         <v>102</v>
       </c>
-      <c r="H23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>103</v>
       </c>
-      <c r="K23" t="s">
-        <v>104</v>
-      </c>
       <c r="L23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3171,31 +3169,31 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>1840</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
         <v>105</v>
       </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>106</v>
       </c>
-      <c r="K24" t="s">
-        <v>107</v>
-      </c>
       <c r="L24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3206,31 +3204,31 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>2700</v>
       </c>
       <c r="F25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" t="s">
         <v>108</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" t="s">
         <v>109</v>
       </c>
-      <c r="H25" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>110</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>111</v>
       </c>
-      <c r="K25" t="s">
-        <v>112</v>
-      </c>
       <c r="L25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3241,31 +3239,31 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>6032</v>
       </c>
       <c r="F26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
         <v>113</v>
       </c>
-      <c r="G26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>114</v>
       </c>
-      <c r="K26" t="s">
-        <v>115</v>
-      </c>
       <c r="L26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3276,25 +3274,25 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27">
         <v>162</v>
       </c>
       <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
         <v>87</v>
       </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>88</v>
-      </c>
       <c r="J27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3305,31 +3303,31 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>6142</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s">
         <v>116</v>
       </c>
-      <c r="H28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>117</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>118</v>
       </c>
-      <c r="K28" t="s">
-        <v>119</v>
-      </c>
       <c r="L28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3340,31 +3338,31 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>3016</v>
       </c>
       <c r="F29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" t="s">
         <v>120</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
         <v>121</v>
       </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>122</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>123</v>
       </c>
-      <c r="K29" t="s">
-        <v>124</v>
-      </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3375,31 +3373,31 @@
         <v>0.4375</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>2024</v>
       </c>
       <c r="F30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" t="s">
         <v>125</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
         <v>126</v>
       </c>
-      <c r="H30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>127</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>128</v>
       </c>
-      <c r="K30" t="s">
-        <v>129</v>
-      </c>
       <c r="L30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3410,31 +3408,31 @@
         <v>0.4375</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>6156</v>
       </c>
       <c r="F31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
         <v>130</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" t="s">
         <v>131</v>
       </c>
-      <c r="H31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>132</v>
       </c>
-      <c r="K31" t="s">
-        <v>133</v>
-      </c>
       <c r="L31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -3445,31 +3443,31 @@
         <v>0.4375</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>6042</v>
       </c>
       <c r="F32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" t="s">
         <v>134</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" t="s">
         <v>135</v>
       </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-      <c r="J32" t="s">
-        <v>136</v>
-      </c>
       <c r="K32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3480,31 +3478,31 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>6252</v>
       </c>
       <c r="F33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" t="s">
         <v>137</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" t="s">
         <v>138</v>
       </c>
-      <c r="H33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" t="s">
-        <v>139</v>
-      </c>
       <c r="K33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3515,28 +3513,28 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34">
         <v>4144</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" t="s">
         <v>141</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>142</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>143</v>
       </c>
-      <c r="K34" t="s">
-        <v>144</v>
-      </c>
       <c r="L34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3547,31 +3545,31 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>4001</v>
       </c>
       <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
         <v>13</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>14</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>15</v>
       </c>
-      <c r="I35" t="s">
-        <v>16</v>
-      </c>
       <c r="J35" t="s">
+        <v>144</v>
+      </c>
+      <c r="K35" t="s">
         <v>145</v>
       </c>
-      <c r="K35" t="s">
-        <v>146</v>
-      </c>
       <c r="L35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3582,31 +3580,31 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>6132</v>
       </c>
       <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" t="s">
         <v>147</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" t="s">
         <v>148</v>
       </c>
-      <c r="H36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>149</v>
       </c>
-      <c r="K36" t="s">
-        <v>150</v>
-      </c>
       <c r="L36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3617,31 +3615,31 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37">
         <v>6472</v>
       </c>
       <c r="F37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" t="s">
         <v>151</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" t="s">
         <v>152</v>
       </c>
-      <c r="H37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>153</v>
       </c>
-      <c r="K37" t="s">
-        <v>154</v>
-      </c>
       <c r="L37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3652,28 +3650,28 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E38">
         <v>1316</v>
       </c>
       <c r="F38" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" t="s">
         <v>156</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>157</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>158</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>159</v>
       </c>
-      <c r="K38" t="s">
-        <v>160</v>
-      </c>
       <c r="L38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3684,28 +3682,28 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>1401</v>
       </c>
       <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
         <v>21</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>22</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>23</v>
       </c>
-      <c r="I39" t="s">
-        <v>24</v>
-      </c>
       <c r="J39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3716,31 +3714,31 @@
         <v>0.4826388888888889</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40">
         <v>6171</v>
       </c>
       <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
         <v>39</v>
       </c>
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
       <c r="H40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
+        <v>161</v>
+      </c>
+      <c r="K40" t="s">
         <v>162</v>
       </c>
-      <c r="K40" t="s">
-        <v>163</v>
-      </c>
       <c r="L40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3751,28 +3749,28 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E41">
         <v>651</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I41" t="s">
+        <v>164</v>
+      </c>
+      <c r="J41" t="s">
         <v>165</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>166</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>167</v>
-      </c>
-      <c r="L41" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3783,31 +3781,31 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42">
         <v>2046</v>
       </c>
       <c r="F42" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" t="s">
         <v>169</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
         <v>170</v>
       </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>171</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>172</v>
       </c>
-      <c r="K42" t="s">
-        <v>173</v>
-      </c>
       <c r="L42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3818,31 +3816,31 @@
         <v>0.5</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43">
         <v>6292</v>
       </c>
       <c r="F43" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" t="s">
         <v>174</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43" t="s">
         <v>175</v>
       </c>
-      <c r="H43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" t="s">
-        <v>98</v>
-      </c>
-      <c r="J43" t="s">
-        <v>176</v>
-      </c>
       <c r="K43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3853,31 +3851,31 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44">
         <v>6181</v>
       </c>
       <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
         <v>43</v>
       </c>
-      <c r="G44" t="s">
-        <v>44</v>
-      </c>
       <c r="H44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
+        <v>176</v>
+      </c>
+      <c r="K44" t="s">
         <v>177</v>
       </c>
-      <c r="K44" t="s">
-        <v>178</v>
-      </c>
       <c r="L44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3888,28 +3886,28 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E45">
         <v>1317</v>
       </c>
       <c r="F45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" t="s">
         <v>156</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>157</v>
       </c>
-      <c r="I45" t="s">
-        <v>158</v>
-      </c>
       <c r="J45" t="s">
+        <v>178</v>
+      </c>
+      <c r="K45" t="s">
         <v>179</v>
       </c>
-      <c r="K45" t="s">
-        <v>180</v>
-      </c>
       <c r="L45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3920,31 +3918,31 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46">
         <v>6216</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J46" t="s">
+        <v>180</v>
+      </c>
+      <c r="K46" t="s">
         <v>181</v>
       </c>
-      <c r="K46" t="s">
-        <v>182</v>
-      </c>
       <c r="L46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3955,31 +3953,31 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>1402</v>
       </c>
       <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
         <v>21</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>22</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>23</v>
       </c>
-      <c r="I47" t="s">
-        <v>24</v>
-      </c>
       <c r="J47" t="s">
+        <v>182</v>
+      </c>
+      <c r="K47" t="s">
         <v>183</v>
       </c>
-      <c r="K47" t="s">
-        <v>184</v>
-      </c>
       <c r="L47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3990,31 +3988,31 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48">
         <v>6228</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -4025,28 +4023,28 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E49">
         <v>4145</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" t="s">
         <v>141</v>
       </c>
-      <c r="I49" t="s">
-        <v>142</v>
-      </c>
       <c r="J49" t="s">
+        <v>185</v>
+      </c>
+      <c r="K49" t="s">
         <v>186</v>
       </c>
-      <c r="K49" t="s">
-        <v>187</v>
-      </c>
       <c r="L49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -4057,31 +4055,31 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50">
         <v>6043</v>
       </c>
       <c r="F50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" t="s">
         <v>134</v>
       </c>
-      <c r="G50" t="s">
-        <v>135</v>
-      </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
+        <v>187</v>
+      </c>
+      <c r="K50" t="s">
         <v>188</v>
       </c>
-      <c r="K50" t="s">
-        <v>189</v>
-      </c>
       <c r="L50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -4092,28 +4090,28 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E51">
         <v>1379</v>
       </c>
       <c r="F51" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" t="s">
         <v>191</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>192</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>193</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>194</v>
       </c>
-      <c r="K51" t="s">
-        <v>195</v>
-      </c>
       <c r="L51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -4124,31 +4122,31 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52">
         <v>1020</v>
       </c>
       <c r="F52" t="s">
+        <v>195</v>
+      </c>
+      <c r="G52" t="s">
         <v>196</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
+        <v>68</v>
+      </c>
+      <c r="I52" t="s">
         <v>197</v>
       </c>
-      <c r="H52" t="s">
-        <v>69</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>198</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>199</v>
       </c>
-      <c r="K52" t="s">
-        <v>200</v>
-      </c>
       <c r="L52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -4159,28 +4157,28 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E53">
         <v>652</v>
       </c>
       <c r="F53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J53" t="s">
+        <v>200</v>
+      </c>
+      <c r="K53" t="s">
         <v>201</v>
       </c>
-      <c r="K53" t="s">
-        <v>202</v>
-      </c>
       <c r="L53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -4191,31 +4189,31 @@
         <v>0.55902777777777779</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54">
         <v>6033</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J54" t="s">
+        <v>202</v>
+      </c>
+      <c r="K54" t="s">
         <v>203</v>
       </c>
-      <c r="K54" t="s">
-        <v>204</v>
-      </c>
       <c r="L54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -4226,28 +4224,28 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="D55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E55">
         <v>374</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
+        <v>205</v>
+      </c>
+      <c r="I55" t="s">
         <v>206</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>207</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>208</v>
       </c>
-      <c r="K55" t="s">
-        <v>209</v>
-      </c>
       <c r="L55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -4258,31 +4256,31 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56">
         <v>6253</v>
       </c>
       <c r="F56" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56" t="s">
         <v>137</v>
       </c>
-      <c r="G56" t="s">
-        <v>138</v>
-      </c>
       <c r="H56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
+        <v>209</v>
+      </c>
+      <c r="K56" t="s">
         <v>210</v>
       </c>
-      <c r="K56" t="s">
-        <v>211</v>
-      </c>
       <c r="L56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -4293,31 +4291,31 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57">
         <v>6157</v>
       </c>
       <c r="F57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" t="s">
         <v>130</v>
       </c>
-      <c r="G57" t="s">
-        <v>131</v>
-      </c>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J57" t="s">
+        <v>211</v>
+      </c>
+      <c r="K57" t="s">
         <v>212</v>
       </c>
-      <c r="K57" t="s">
-        <v>213</v>
-      </c>
       <c r="L57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -4328,31 +4326,31 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58">
         <v>4063</v>
       </c>
       <c r="F58" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" t="s">
         <v>214</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" t="s">
+        <v>141</v>
+      </c>
+      <c r="J58" t="s">
         <v>215</v>
       </c>
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-      <c r="I58" t="s">
-        <v>142</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>216</v>
       </c>
-      <c r="K58" t="s">
-        <v>217</v>
-      </c>
       <c r="L58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4363,31 +4361,31 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59">
         <v>6056</v>
       </c>
       <c r="F59" t="s">
+        <v>217</v>
+      </c>
+      <c r="G59" t="s">
         <v>218</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s">
+        <v>116</v>
+      </c>
+      <c r="J59" t="s">
         <v>219</v>
       </c>
-      <c r="H59" t="s">
-        <v>80</v>
-      </c>
-      <c r="I59" t="s">
-        <v>117</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>220</v>
       </c>
-      <c r="K59" t="s">
-        <v>221</v>
-      </c>
       <c r="L59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -4398,31 +4396,31 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60">
         <v>6184</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
+        <v>221</v>
+      </c>
+      <c r="H60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" t="s">
         <v>222</v>
       </c>
-      <c r="H60" t="s">
-        <v>80</v>
-      </c>
-      <c r="I60" t="s">
-        <v>54</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>223</v>
       </c>
-      <c r="K60" t="s">
-        <v>224</v>
-      </c>
       <c r="L60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -4433,28 +4431,28 @@
         <v>0.60763888888888895</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E61">
         <v>375</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
+        <v>205</v>
+      </c>
+      <c r="I61" t="s">
         <v>206</v>
       </c>
-      <c r="I61" t="s">
-        <v>207</v>
-      </c>
       <c r="J61" t="s">
+        <v>224</v>
+      </c>
+      <c r="K61" t="s">
         <v>225</v>
       </c>
-      <c r="K61" t="s">
-        <v>226</v>
-      </c>
       <c r="L61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -4465,31 +4463,31 @@
         <v>0.625</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62">
         <v>6143</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J62" t="s">
+        <v>226</v>
+      </c>
+      <c r="K62" t="s">
         <v>227</v>
       </c>
-      <c r="K62" t="s">
-        <v>228</v>
-      </c>
       <c r="L62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -4500,31 +4498,31 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63">
         <v>1011</v>
       </c>
       <c r="F63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" t="s">
         <v>67</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>68</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>69</v>
       </c>
-      <c r="I63" t="s">
-        <v>70</v>
-      </c>
       <c r="J63" t="s">
+        <v>228</v>
+      </c>
+      <c r="K63" t="s">
         <v>229</v>
       </c>
-      <c r="K63" t="s">
-        <v>230</v>
-      </c>
       <c r="L63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -4535,31 +4533,31 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>1201</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
         <v>23</v>
       </c>
-      <c r="I64" t="s">
-        <v>24</v>
-      </c>
       <c r="J64" t="s">
+        <v>230</v>
+      </c>
+      <c r="K64" t="s">
         <v>231</v>
       </c>
-      <c r="K64" t="s">
-        <v>232</v>
-      </c>
       <c r="L64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -4570,31 +4568,31 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65">
         <v>6259</v>
       </c>
       <c r="F65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
         <v>30</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>31</v>
       </c>
-      <c r="H65" t="s">
-        <v>32</v>
-      </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J65" t="s">
+        <v>232</v>
+      </c>
+      <c r="K65" t="s">
         <v>233</v>
       </c>
-      <c r="K65" t="s">
-        <v>234</v>
-      </c>
       <c r="L65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -4605,31 +4603,31 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66">
         <v>2025</v>
       </c>
       <c r="F66" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" t="s">
         <v>125</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
         <v>126</v>
       </c>
-      <c r="H66" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" t="s">
-        <v>127</v>
-      </c>
       <c r="J66" t="s">
+        <v>234</v>
+      </c>
+      <c r="K66" t="s">
         <v>235</v>
       </c>
-      <c r="K66" t="s">
-        <v>236</v>
-      </c>
       <c r="L66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -4640,28 +4638,28 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E67">
         <v>1380</v>
       </c>
       <c r="F67" t="s">
+        <v>190</v>
+      </c>
+      <c r="H67" t="s">
         <v>191</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>192</v>
       </c>
-      <c r="I67" t="s">
-        <v>193</v>
-      </c>
       <c r="J67" t="s">
+        <v>236</v>
+      </c>
+      <c r="K67" t="s">
         <v>237</v>
       </c>
-      <c r="K67" t="s">
-        <v>238</v>
-      </c>
       <c r="L67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -4672,31 +4670,31 @@
         <v>0.64236111111111105</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68">
         <v>3001</v>
       </c>
       <c r="F68" t="s">
+        <v>238</v>
+      </c>
+      <c r="G68" t="s">
         <v>239</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>170</v>
+      </c>
+      <c r="J68" t="s">
         <v>240</v>
       </c>
-      <c r="H68" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" t="s">
-        <v>171</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>241</v>
       </c>
-      <c r="K68" t="s">
-        <v>242</v>
-      </c>
       <c r="L68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -4707,31 +4705,31 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E69">
         <v>1517</v>
       </c>
       <c r="F69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" t="s">
         <v>57</v>
       </c>
-      <c r="G69" t="s">
-        <v>58</v>
-      </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J69" t="s">
+        <v>242</v>
+      </c>
+      <c r="K69" t="s">
         <v>243</v>
       </c>
-      <c r="K69" t="s">
-        <v>244</v>
-      </c>
       <c r="L69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -4742,31 +4740,31 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70">
         <v>4602</v>
       </c>
       <c r="F70" t="s">
+        <v>244</v>
+      </c>
+      <c r="G70" t="s">
         <v>245</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
+        <v>68</v>
+      </c>
+      <c r="I70" t="s">
         <v>246</v>
       </c>
-      <c r="H70" t="s">
-        <v>69</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>247</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>248</v>
       </c>
-      <c r="K70" t="s">
-        <v>249</v>
-      </c>
       <c r="L70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -4777,31 +4775,31 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E71">
         <v>6140</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
+        <v>249</v>
+      </c>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" t="s">
         <v>250</v>
       </c>
-      <c r="H71" t="s">
-        <v>32</v>
-      </c>
-      <c r="I71" t="s">
-        <v>24</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>251</v>
       </c>
-      <c r="K71" t="s">
-        <v>252</v>
-      </c>
       <c r="L71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -4812,31 +4810,31 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E72">
         <v>6176</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -4847,31 +4845,31 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73">
         <v>6192</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
+        <v>253</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73" t="s">
         <v>254</v>
       </c>
-      <c r="H73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" t="s">
-        <v>49</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>255</v>
       </c>
-      <c r="K73" t="s">
-        <v>256</v>
-      </c>
       <c r="L73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -4882,31 +4880,31 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74">
         <v>6133</v>
       </c>
       <c r="F74" t="s">
+        <v>146</v>
+      </c>
+      <c r="G74" t="s">
         <v>147</v>
       </c>
-      <c r="G74" t="s">
-        <v>148</v>
-      </c>
       <c r="H74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4917,28 +4915,28 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>1155</v>
       </c>
       <c r="F75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4949,31 +4947,31 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76">
         <v>6217</v>
       </c>
       <c r="F76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4984,31 +4982,31 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>2114</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J77" t="s">
+        <v>259</v>
+      </c>
+      <c r="K77" t="s">
         <v>260</v>
       </c>
-      <c r="K77" t="s">
-        <v>261</v>
-      </c>
       <c r="L77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -5019,31 +5017,31 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E78">
         <v>2047</v>
       </c>
       <c r="F78" t="s">
+        <v>168</v>
+      </c>
+      <c r="G78" t="s">
         <v>169</v>
       </c>
-      <c r="G78" t="s">
-        <v>170</v>
-      </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I78" t="s">
+        <v>261</v>
+      </c>
+      <c r="J78" t="s">
         <v>262</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>263</v>
       </c>
-      <c r="K78" t="s">
-        <v>264</v>
-      </c>
       <c r="L78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -5054,31 +5052,31 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79">
         <v>2014</v>
       </c>
       <c r="F79" t="s">
+        <v>264</v>
+      </c>
+      <c r="G79" t="s">
+        <v>67</v>
+      </c>
+      <c r="H79" t="s">
+        <v>68</v>
+      </c>
+      <c r="I79" t="s">
+        <v>69</v>
+      </c>
+      <c r="J79" t="s">
         <v>265</v>
       </c>
-      <c r="G79" t="s">
-        <v>68</v>
-      </c>
-      <c r="H79" t="s">
-        <v>69</v>
-      </c>
-      <c r="I79" t="s">
-        <v>70</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>266</v>
       </c>
-      <c r="K79" t="s">
-        <v>267</v>
-      </c>
       <c r="L79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -5089,28 +5087,28 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80">
         <v>6229</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s">
+        <v>267</v>
+      </c>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" t="s">
         <v>268</v>
       </c>
-      <c r="H80" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" t="s">
-        <v>24</v>
-      </c>
-      <c r="J80" t="s">
-        <v>269</v>
-      </c>
       <c r="L80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -5121,31 +5119,31 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="D81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E81">
         <v>1327</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J81" t="s">
+        <v>269</v>
+      </c>
+      <c r="K81" t="s">
         <v>270</v>
       </c>
-      <c r="K81" t="s">
-        <v>271</v>
-      </c>
       <c r="L81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -5156,31 +5154,31 @@
         <v>0.71180555555555547</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82">
         <v>6239</v>
       </c>
       <c r="F82" t="s">
+        <v>95</v>
+      </c>
+      <c r="G82" t="s">
         <v>96</v>
       </c>
-      <c r="G82" t="s">
-        <v>97</v>
-      </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J82" t="s">
+        <v>271</v>
+      </c>
+      <c r="K82" t="s">
         <v>272</v>
       </c>
-      <c r="K82" t="s">
-        <v>273</v>
-      </c>
       <c r="L82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -5191,31 +5189,31 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>2321</v>
       </c>
       <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
         <v>35</v>
       </c>
-      <c r="G83" t="s">
-        <v>36</v>
-      </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -5226,31 +5224,31 @@
         <v>0.71875</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84">
         <v>6297</v>
       </c>
       <c r="F84" t="s">
+        <v>274</v>
+      </c>
+      <c r="G84" t="s">
         <v>275</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" t="s">
         <v>276</v>
       </c>
-      <c r="H84" t="s">
-        <v>32</v>
-      </c>
-      <c r="I84" t="s">
-        <v>24</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>277</v>
       </c>
-      <c r="K84" t="s">
-        <v>278</v>
-      </c>
       <c r="L84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -5261,31 +5259,31 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E85">
         <v>6222</v>
       </c>
       <c r="F85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J85" t="s">
+        <v>278</v>
+      </c>
+      <c r="K85" t="s">
         <v>279</v>
       </c>
-      <c r="K85" t="s">
-        <v>280</v>
-      </c>
       <c r="L85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -5296,31 +5294,31 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86">
         <v>6185</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J86" t="s">
+        <v>280</v>
+      </c>
+      <c r="K86" t="s">
         <v>281</v>
       </c>
-      <c r="K86" t="s">
-        <v>282</v>
-      </c>
       <c r="L86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -5331,31 +5329,31 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87">
         <v>6057</v>
       </c>
       <c r="F87" t="s">
+        <v>217</v>
+      </c>
+      <c r="G87" t="s">
         <v>218</v>
       </c>
-      <c r="G87" t="s">
-        <v>219</v>
-      </c>
       <c r="H87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -5366,28 +5364,28 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E88">
         <v>6343</v>
       </c>
       <c r="F88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J88" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -5398,31 +5396,31 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89">
         <v>6473</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -5433,31 +5431,31 @@
         <v>0.75</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90">
         <v>1021</v>
       </c>
       <c r="F90" t="s">
+        <v>195</v>
+      </c>
+      <c r="G90" t="s">
         <v>196</v>
       </c>
-      <c r="G90" t="s">
-        <v>197</v>
-      </c>
       <c r="H90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I90" t="s">
+        <v>285</v>
+      </c>
+      <c r="J90" t="s">
         <v>286</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>287</v>
       </c>
-      <c r="K90" t="s">
-        <v>288</v>
-      </c>
       <c r="L90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -5468,31 +5466,31 @@
         <v>0.75</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E91">
         <v>1802</v>
       </c>
       <c r="F91" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91" t="s">
         <v>47</v>
       </c>
-      <c r="G91" t="s">
-        <v>48</v>
-      </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J91" t="s">
+        <v>288</v>
+      </c>
+      <c r="K91" t="s">
         <v>289</v>
       </c>
-      <c r="K91" t="s">
-        <v>290</v>
-      </c>
       <c r="L91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -5503,28 +5501,28 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="D92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E92">
         <v>7991</v>
       </c>
       <c r="F92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J92" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -5535,31 +5533,31 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93">
         <v>3017</v>
       </c>
       <c r="F93" t="s">
+        <v>119</v>
+      </c>
+      <c r="G93" t="s">
         <v>120</v>
       </c>
-      <c r="G93" t="s">
-        <v>121</v>
-      </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J93" t="s">
+        <v>292</v>
+      </c>
+      <c r="K93" t="s">
         <v>293</v>
       </c>
-      <c r="K93" t="s">
-        <v>294</v>
-      </c>
       <c r="L93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -5570,31 +5568,31 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E94">
         <v>6026</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J94" t="s">
+        <v>294</v>
+      </c>
+      <c r="K94" t="s">
         <v>295</v>
       </c>
-      <c r="K94" t="s">
-        <v>296</v>
-      </c>
       <c r="L94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -5605,31 +5603,31 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95">
         <v>6106</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J95" t="s">
+        <v>296</v>
+      </c>
+      <c r="K95" t="s">
         <v>297</v>
       </c>
-      <c r="K95" t="s">
-        <v>298</v>
-      </c>
       <c r="L95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -5640,31 +5638,31 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96">
         <v>6193</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J96" t="s">
+        <v>298</v>
+      </c>
+      <c r="K96" t="s">
         <v>299</v>
       </c>
-      <c r="K96" t="s">
-        <v>300</v>
-      </c>
       <c r="L96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -5675,31 +5673,31 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97">
         <v>6006</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J97" t="s">
+        <v>300</v>
+      </c>
+      <c r="K97" t="s">
         <v>301</v>
       </c>
-      <c r="K97" t="s">
-        <v>302</v>
-      </c>
       <c r="L97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -5710,28 +5708,28 @@
         <v>0.79513888888888884</v>
       </c>
       <c r="D98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E98">
         <v>7990</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J98" t="s">
+        <v>302</v>
+      </c>
+      <c r="K98" t="s">
         <v>303</v>
       </c>
-      <c r="K98" t="s">
-        <v>304</v>
-      </c>
       <c r="L98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -5742,28 +5740,28 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E99">
         <v>1841</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -5774,31 +5772,31 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E100">
         <v>6177</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J100" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -5809,31 +5807,31 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E101">
         <v>6521</v>
       </c>
       <c r="F101" t="s">
+        <v>81</v>
+      </c>
+      <c r="G101" t="s">
         <v>82</v>
       </c>
-      <c r="G101" t="s">
-        <v>83</v>
-      </c>
       <c r="H101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J101" t="s">
+        <v>306</v>
+      </c>
+      <c r="K101" t="s">
         <v>307</v>
       </c>
-      <c r="K101" t="s">
-        <v>308</v>
-      </c>
       <c r="L101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -5844,31 +5842,31 @@
         <v>0.81597222222222221</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E102">
         <v>6292</v>
       </c>
       <c r="F102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J102" t="s">
+        <v>308</v>
+      </c>
+      <c r="K102" t="s">
         <v>309</v>
       </c>
-      <c r="K102" t="s">
-        <v>310</v>
-      </c>
       <c r="L102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5879,31 +5877,31 @@
         <v>0.875</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E103">
         <v>2015</v>
       </c>
       <c r="F103" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G103" t="s">
+        <v>67</v>
+      </c>
+      <c r="H103" t="s">
         <v>68</v>
       </c>
-      <c r="H103" t="s">
-        <v>69</v>
-      </c>
       <c r="I103" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J103" t="s">
+        <v>310</v>
+      </c>
+      <c r="K103" t="s">
         <v>311</v>
       </c>
-      <c r="K103" t="s">
-        <v>312</v>
-      </c>
       <c r="L103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5915,31 +5913,31 @@
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E104" s="5">
         <v>4603</v>
       </c>
       <c r="F104" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I104" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G104" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="J104" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="K104" s="4" t="s">
+      <c r="L104" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="L104" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5951,31 +5949,31 @@
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E105" s="5">
         <v>2701</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G105" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I105" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H105" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="J105" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="K105" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="L105" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5987,29 +5985,29 @@
         <v>0.30555555555555552</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E106" s="5">
         <v>1524</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G106" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I106" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J106" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6021,31 +6019,31 @@
         <v>0.3125</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E107" s="5">
         <v>6070</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H107" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J107" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="I107" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J107" s="4" t="s">
+      <c r="K107" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="K107" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="L107" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6057,31 +6055,31 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E108" s="5">
         <v>6038</v>
       </c>
       <c r="F108" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="I108" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J108" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="K108" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="I108" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K108" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="L108" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6093,29 +6091,29 @@
         <v>0.34375</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E109" s="5">
         <v>6170</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6127,31 +6125,31 @@
         <v>0.34375</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" s="5">
         <v>6216</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J110" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="K110" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="L110" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6163,31 +6161,31 @@
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E111" s="5">
         <v>1903</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J111" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="K111" s="4" t="s">
-        <v>329</v>
-      </c>
       <c r="L111" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6199,29 +6197,29 @@
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E112" s="5">
         <v>7476</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I112" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="J112" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="K112" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="L112" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6233,31 +6231,31 @@
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E113" s="5">
         <v>6223</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J113" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="K113" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="L113" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6269,31 +6267,31 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E114" s="5">
         <v>6180</v>
       </c>
       <c r="F114" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J114" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G114" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J114" s="4" t="s">
+      <c r="K114" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="K114" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="L114" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6305,31 +6303,31 @@
         <v>0.375</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115" s="5">
         <v>6232</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J115" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="K115" s="4" t="s">
-        <v>338</v>
-      </c>
       <c r="L115" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6341,31 +6339,31 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" s="5">
         <v>1010</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G116" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I116" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H116" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="J116" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="K116" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="L116" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6377,31 +6375,31 @@
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E117" s="5">
         <v>6107</v>
       </c>
       <c r="F117" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J117" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J117" s="4" t="s">
+      <c r="K117" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="K117" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="L117" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6413,29 +6411,29 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E118" s="5">
         <v>7477</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I118" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H118" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="J118" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="K118" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="L118" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6447,31 +6445,31 @@
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E119" s="5">
         <v>6027</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J119" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="K119" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="L119" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6483,31 +6481,31 @@
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E120" s="5">
         <v>6007</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J120" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="K120" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="L120" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6519,31 +6517,31 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E121" s="5">
         <v>3016</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J121" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="K121" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="L121" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6555,31 +6553,31 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E122" s="5">
         <v>1320</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H122" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J122" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="I122" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J122" s="4" t="s">
+      <c r="K122" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="K122" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="L122" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6591,29 +6589,29 @@
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E123" s="5">
         <v>2111</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6625,29 +6623,29 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E124" s="5">
         <v>6276</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H124" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J124" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6659,31 +6657,31 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E125" s="5">
         <v>2070</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J125" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="K125" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="L125" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6695,31 +6693,31 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E126" s="5">
         <v>6142</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6731,31 +6729,31 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E127" s="5">
         <v>6156</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J127" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="K127" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="L127" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6767,31 +6765,31 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E128" s="5">
         <v>2026</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H128" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="I128" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J128" s="4" t="s">
+      <c r="K128" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="K128" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="L128" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6803,29 +6801,29 @@
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E129" s="5">
         <v>271</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J129" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="K129" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="L129" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6837,31 +6835,31 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130" s="5">
         <v>2054</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H130" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I130" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="L130" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6873,29 +6871,29 @@
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H131" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="J131" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6907,29 +6905,29 @@
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E132" s="5">
         <v>4144</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J132" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="K132" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="L132" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6941,29 +6939,29 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E133" s="5">
         <v>6190</v>
       </c>
       <c r="F133" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J133" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I133" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6975,31 +6973,31 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E134" s="5">
         <v>6058</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J134" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="K134" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="L134" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7011,31 +7009,31 @@
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E135" s="5">
         <v>6039</v>
       </c>
       <c r="F135" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="I135" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7047,27 +7045,27 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E136" s="5">
         <v>364</v>
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H136" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J136" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="K136" s="4"/>
       <c r="L136" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7079,29 +7077,29 @@
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E137" s="5">
         <v>1384</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J137" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="K137" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="L137" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7113,27 +7111,27 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E138" s="5">
         <v>131</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H138" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="J138" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K138" s="4"/>
       <c r="L138" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7145,31 +7143,31 @@
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E139" s="5">
         <v>6171</v>
       </c>
       <c r="F139" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="H139" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7181,29 +7179,29 @@
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E140" s="5">
         <v>651</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I140" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J140" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="J140" s="4" t="s">
+      <c r="K140" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="K140" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="L140" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7215,29 +7213,29 @@
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E141" s="5">
         <v>845</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H141" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I141" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="I141" s="4" t="s">
+      <c r="J141" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="J141" s="4" t="s">
+      <c r="K141" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="K141" s="4" t="s">
-        <v>391</v>
-      </c>
       <c r="L141" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7249,31 +7247,31 @@
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E142" s="5">
         <v>6181</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J142" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="K142" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="L142" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7285,31 +7283,31 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E143" s="5">
         <v>6266</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H143" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J143" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="I143" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J143" s="4" t="s">
+      <c r="K143" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="K143" s="4" t="s">
-        <v>396</v>
-      </c>
       <c r="L143" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7321,29 +7319,29 @@
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E144" s="5">
         <v>6217</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K144" s="4"/>
       <c r="L144" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7355,27 +7353,27 @@
         <v>0.53125</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E145" s="5">
         <v>4145</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K145" s="4"/>
       <c r="L145" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7387,27 +7385,27 @@
         <v>0.53125</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E146" s="5">
         <v>1855</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K146" s="4"/>
       <c r="L146" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7419,31 +7417,31 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E147" s="5">
         <v>6252</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7455,29 +7453,29 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E148" s="5">
         <v>846</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H148" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I148" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="I148" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="J148" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="K148" s="4" t="s">
-        <v>402</v>
-      </c>
       <c r="L148" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7489,29 +7487,29 @@
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E149" s="5">
         <v>1379</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J149" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="K149" s="4" t="s">
-        <v>404</v>
-      </c>
       <c r="L149" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7523,31 +7521,31 @@
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E150" s="5">
         <v>6191</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J150" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="K150" s="4" t="s">
-        <v>406</v>
-      </c>
       <c r="L150" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7559,29 +7557,29 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E151" s="5">
         <v>652</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J151" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="K151" s="4" t="s">
-        <v>408</v>
-      </c>
       <c r="L151" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7593,31 +7591,31 @@
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E152" s="5">
         <v>6059</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7629,29 +7627,29 @@
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E153" s="5">
         <v>6277</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K153" s="4"/>
       <c r="L153" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7663,29 +7661,29 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E154" s="5">
         <v>1860</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K154" s="4"/>
       <c r="L154" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7697,29 +7695,29 @@
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E155" s="5">
         <v>341</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J155" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="K155" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="L155" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7731,31 +7729,31 @@
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E156" s="5">
         <v>6157</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J156" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="K156" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="L156" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7767,31 +7765,31 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E157" s="5">
         <v>6194</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J157" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="K157" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="L157" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7803,31 +7801,31 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E158" s="5">
         <v>6176</v>
       </c>
       <c r="F158" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G158" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="H158" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J158" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="K158" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="L158" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7839,29 +7837,29 @@
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E159" s="5">
         <v>1321</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K159" s="4"/>
       <c r="L159" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7873,29 +7871,29 @@
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E160" s="5">
         <v>1525</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G160" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I160" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H160" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I160" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J160" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K160" s="4"/>
       <c r="L160" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7907,31 +7905,31 @@
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E161" s="5">
         <v>6143</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J161" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="K161" s="4" t="s">
-        <v>424</v>
-      </c>
       <c r="L161" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7943,31 +7941,31 @@
         <v>0.625</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E162" s="5">
         <v>2110</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J162" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="K162" s="4" t="s">
-        <v>426</v>
-      </c>
       <c r="L162" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7979,31 +7977,31 @@
         <v>0.62847222222222221</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E163" s="5">
         <v>5010</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H163" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="I163" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J163" s="4" t="s">
+      <c r="K163" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="K163" s="4" t="s">
-        <v>429</v>
-      </c>
       <c r="L163" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8015,31 +8013,31 @@
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E164" s="5">
         <v>1011</v>
       </c>
       <c r="F164" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I164" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G164" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="J164" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="K164" s="4" t="s">
-        <v>431</v>
-      </c>
       <c r="L164" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8051,31 +8049,31 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E165" s="5">
         <v>2220</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J165" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K165" s="4" t="s">
-        <v>433</v>
-      </c>
       <c r="L165" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8087,31 +8085,31 @@
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E166" s="5">
         <v>2027</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J166" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="K166" s="4" t="s">
-        <v>435</v>
-      </c>
       <c r="L166" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8123,29 +8121,29 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E167" s="5">
         <v>1380</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J167" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="K167" s="4" t="s">
-        <v>437</v>
-      </c>
       <c r="L167" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8157,31 +8155,31 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E168" s="5">
         <v>6184</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J168" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="K168" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="L168" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8193,31 +8191,31 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E169" s="5">
         <v>1040</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H169" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J169" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="I169" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="J169" s="4" t="s">
+      <c r="K169" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="K169" s="4" t="s">
-        <v>442</v>
-      </c>
       <c r="L169" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8229,31 +8227,31 @@
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E170" s="5">
         <v>6267</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J170" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K170" s="4" t="s">
-        <v>444</v>
-      </c>
       <c r="L170" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8265,31 +8263,31 @@
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E171" s="5">
         <v>6071</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8301,29 +8299,29 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E172" s="5">
         <v>340</v>
       </c>
       <c r="F172" s="4"/>
       <c r="G172" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8335,31 +8333,31 @@
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E173" s="5">
         <v>6232</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8371,31 +8369,31 @@
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E174" s="5">
         <v>6253</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8407,31 +8405,31 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E175" s="5">
         <v>4002</v>
       </c>
       <c r="F175" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J175" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="G175" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H175" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I175" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J175" s="4" t="s">
+      <c r="K175" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="K175" s="4" t="s">
-        <v>450</v>
-      </c>
       <c r="L175" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8443,29 +8441,29 @@
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E176" s="5">
         <v>1501</v>
       </c>
       <c r="F176" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G176" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="G176" s="4" t="s">
+      <c r="H176" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J176" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="H176" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="K176" s="4"/>
       <c r="L176" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8477,31 +8475,31 @@
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E177" s="5">
         <v>6195</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J177" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="K177" s="4" t="s">
-        <v>455</v>
-      </c>
       <c r="L177" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8513,31 +8511,31 @@
         <v>0.71875</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E178" s="5">
         <v>4604</v>
       </c>
       <c r="F178" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G178" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G178" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="H178" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J178" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="I178" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J178" s="4" t="s">
+      <c r="K178" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="K178" s="4" t="s">
-        <v>458</v>
-      </c>
       <c r="L178" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8549,29 +8547,29 @@
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E179" s="5">
         <v>363</v>
       </c>
       <c r="F179" s="4"/>
       <c r="G179" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8583,29 +8581,29 @@
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E180" s="5">
         <v>2071</v>
       </c>
       <c r="F180" s="4"/>
       <c r="G180" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H180" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I180" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J180" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="K180" s="4" t="s">
-        <v>461</v>
-      </c>
       <c r="L180" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8617,31 +8615,31 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E181" s="5">
         <v>6222</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8653,31 +8651,31 @@
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E182" s="5">
         <v>6177</v>
       </c>
       <c r="F182" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G182" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="H182" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J182" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="K182" s="4" t="s">
-        <v>463</v>
-      </c>
       <c r="L182" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8689,31 +8687,31 @@
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E183" s="5">
         <v>2055</v>
       </c>
       <c r="F183" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I183" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G183" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H183" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="I183" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="J183" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="K183" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="L183" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8725,31 +8723,31 @@
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E184" s="5">
         <v>3017</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G184" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I184" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H184" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I184" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="J184" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="K184" s="4" t="s">
-        <v>467</v>
-      </c>
       <c r="L184" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8761,29 +8759,29 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E185" s="5">
         <v>1802</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K185" s="4"/>
       <c r="L185" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8795,29 +8793,29 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E186" s="5">
         <v>272</v>
       </c>
       <c r="F186" s="4"/>
       <c r="G186" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H186" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I186" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I186" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="J186" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="K186" s="4" t="s">
-        <v>470</v>
-      </c>
       <c r="L186" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8829,31 +8827,31 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E187" s="5">
         <v>6106</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J187" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="K187" s="4" t="s">
-        <v>472</v>
-      </c>
       <c r="L187" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8865,31 +8863,31 @@
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E188" s="5">
         <v>6185</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J188" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="K188" s="4" t="s">
-        <v>474</v>
-      </c>
       <c r="L188" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8901,31 +8899,31 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E189" s="5">
         <v>6200</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8937,31 +8935,31 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E190" s="5">
         <v>6026</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J190" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="K190" s="4" t="s">
-        <v>477</v>
-      </c>
       <c r="L190" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8973,31 +8971,31 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E191" s="5">
         <v>6006</v>
       </c>
       <c r="F191" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G191" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="H191" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J191" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="K191" s="4" t="s">
-        <v>479</v>
-      </c>
       <c r="L191" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9009,31 +9007,31 @@
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E192" s="5">
         <v>1041</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J192" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="K192" s="4" t="s">
-        <v>481</v>
-      </c>
       <c r="L192" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9045,31 +9043,31 @@
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E193" s="5">
         <v>4003</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J193" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="K193" s="4" t="s">
-        <v>483</v>
-      </c>
       <c r="L193" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9081,31 +9079,31 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E194" s="5">
         <v>4062</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J194" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="K194" s="4" t="s">
-        <v>485</v>
-      </c>
       <c r="L194" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9117,29 +9115,29 @@
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E195" s="5">
         <v>802</v>
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J195" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="K195" s="4" t="s">
-        <v>488</v>
-      </c>
       <c r="L195" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
